--- a/data/pca/factorExposure/factorExposure_2014-09-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004181341720028559</v>
+        <v>0.01789079385797361</v>
       </c>
       <c r="C2">
-        <v>-0.1200734531166761</v>
+        <v>0.06954616069716298</v>
       </c>
       <c r="D2">
-        <v>0.02966562409199282</v>
+        <v>0.03220448999760343</v>
       </c>
       <c r="E2">
-        <v>-0.2245606373667744</v>
+        <v>-0.03839635941272496</v>
       </c>
       <c r="F2">
-        <v>0.03100057525466917</v>
+        <v>0.154156208497516</v>
       </c>
       <c r="G2">
-        <v>0.06813008198928641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.007272685337765228</v>
+      </c>
+      <c r="H2">
+        <v>-0.05952520338403739</v>
+      </c>
+      <c r="I2">
+        <v>-0.02236678415101149</v>
+      </c>
+      <c r="J2">
+        <v>-0.02267695348679942</v>
+      </c>
+      <c r="K2">
+        <v>0.1577348335579574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01506538305660239</v>
+        <v>0.01786997957960534</v>
       </c>
       <c r="C4">
-        <v>-0.1665367077705747</v>
+        <v>0.146069935398198</v>
       </c>
       <c r="D4">
-        <v>0.03211825757151606</v>
+        <v>0.06519206977224284</v>
       </c>
       <c r="E4">
-        <v>-0.04897514405307114</v>
+        <v>0.03728120335533346</v>
       </c>
       <c r="F4">
-        <v>-0.0680506851586776</v>
+        <v>0.06321375980235718</v>
       </c>
       <c r="G4">
-        <v>-0.03095674753207699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03525826389917259</v>
+      </c>
+      <c r="H4">
+        <v>-0.06007177822234811</v>
+      </c>
+      <c r="I4">
+        <v>-0.08805375005766806</v>
+      </c>
+      <c r="J4">
+        <v>-0.0007512043946393467</v>
+      </c>
+      <c r="K4">
+        <v>0.1842107245457933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02076691922148711</v>
+        <v>0.0371191893072224</v>
       </c>
       <c r="C6">
-        <v>-0.07865144484463529</v>
+        <v>0.08566768305344696</v>
       </c>
       <c r="D6">
-        <v>0.05751964329048949</v>
+        <v>0.02661807648618354</v>
       </c>
       <c r="E6">
-        <v>-0.06274800116898835</v>
+        <v>-0.03550570070638302</v>
       </c>
       <c r="F6">
-        <v>-0.01734204810110777</v>
+        <v>0.03666105851452497</v>
       </c>
       <c r="G6">
-        <v>-0.03097073030698678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0427383030877667</v>
+      </c>
+      <c r="H6">
+        <v>-0.03581996749365965</v>
+      </c>
+      <c r="I6">
+        <v>0.0130877195523594</v>
+      </c>
+      <c r="J6">
+        <v>0.08446087411272134</v>
+      </c>
+      <c r="K6">
+        <v>0.08081462233781422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.0007331608960603656</v>
+        <v>0.01767040781842229</v>
       </c>
       <c r="C7">
-        <v>-0.0635931571343854</v>
+        <v>0.06980132864787443</v>
       </c>
       <c r="D7">
-        <v>0.03594578587671197</v>
+        <v>0.03032496092274468</v>
       </c>
       <c r="E7">
-        <v>-0.01351505452941096</v>
+        <v>0.01824458979456007</v>
       </c>
       <c r="F7">
-        <v>-0.02928123255386926</v>
+        <v>-0.0003886503759381259</v>
       </c>
       <c r="G7">
-        <v>-0.02717278564291338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03732473368445753</v>
+      </c>
+      <c r="H7">
+        <v>-0.08205330898723887</v>
+      </c>
+      <c r="I7">
+        <v>-0.04882786536313606</v>
+      </c>
+      <c r="J7">
+        <v>0.001791568270671334</v>
+      </c>
+      <c r="K7">
+        <v>0.026835716562697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01238841611383914</v>
+        <v>0.0005511305323174565</v>
       </c>
       <c r="C8">
-        <v>-0.06676884420071638</v>
+        <v>0.06074392815373399</v>
       </c>
       <c r="D8">
-        <v>0.04245038265825806</v>
+        <v>0.04538265701709682</v>
       </c>
       <c r="E8">
-        <v>-0.06122030047263569</v>
+        <v>-0.001607156586083914</v>
       </c>
       <c r="F8">
-        <v>-0.01585474353832357</v>
+        <v>0.06135113566925544</v>
       </c>
       <c r="G8">
-        <v>0.01963949793467326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01727494416401849</v>
+      </c>
+      <c r="H8">
+        <v>-0.05082099844114846</v>
+      </c>
+      <c r="I8">
+        <v>-0.0357671275904482</v>
+      </c>
+      <c r="J8">
+        <v>0.007680458775762262</v>
+      </c>
+      <c r="K8">
+        <v>-0.01386063060377952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.007156828529676504</v>
+        <v>0.0135721799821183</v>
       </c>
       <c r="C9">
-        <v>-0.1196769937074438</v>
+        <v>0.1034526357545812</v>
       </c>
       <c r="D9">
-        <v>0.04505170679544389</v>
+        <v>0.04150931368775239</v>
       </c>
       <c r="E9">
-        <v>-0.01283580410150149</v>
+        <v>0.01107678567755034</v>
       </c>
       <c r="F9">
-        <v>-0.007233149441848255</v>
+        <v>0.03628745461658753</v>
       </c>
       <c r="G9">
-        <v>-0.04339628720952553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02068098488415284</v>
+      </c>
+      <c r="H9">
+        <v>-0.06724233264342624</v>
+      </c>
+      <c r="I9">
+        <v>-0.08704230623192949</v>
+      </c>
+      <c r="J9">
+        <v>0.006257138749854635</v>
+      </c>
+      <c r="K9">
+        <v>0.08390653867046809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2711424764361283</v>
+        <v>0.2493909345568024</v>
       </c>
       <c r="C10">
-        <v>0.06747998011479039</v>
+        <v>-0.08927102345602635</v>
       </c>
       <c r="D10">
-        <v>-0.02519774538369105</v>
+        <v>-0.007181140016909974</v>
       </c>
       <c r="E10">
-        <v>0.02272627531981329</v>
+        <v>-0.01560548778531747</v>
       </c>
       <c r="F10">
-        <v>-0.004633509797237606</v>
+        <v>-0.008668658467229489</v>
       </c>
       <c r="G10">
-        <v>-0.027711084990145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03130461720467301</v>
+      </c>
+      <c r="H10">
+        <v>-0.02810088456156026</v>
+      </c>
+      <c r="I10">
+        <v>-0.01826475564391773</v>
+      </c>
+      <c r="J10">
+        <v>-0.1446027023473571</v>
+      </c>
+      <c r="K10">
+        <v>-0.07716170112722398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.003850974657532965</v>
+        <v>0.01639580402159002</v>
       </c>
       <c r="C11">
-        <v>-0.06643496614940307</v>
+        <v>0.08178511155700464</v>
       </c>
       <c r="D11">
-        <v>0.02823311414939052</v>
+        <v>0.03806359390836597</v>
       </c>
       <c r="E11">
-        <v>0.02359781548414265</v>
+        <v>0.005181576890309335</v>
       </c>
       <c r="F11">
-        <v>-0.004664452853408097</v>
+        <v>-0.01083161596972808</v>
       </c>
       <c r="G11">
-        <v>-0.04657286109542345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01294466915947529</v>
+      </c>
+      <c r="H11">
+        <v>-0.02188532423942541</v>
+      </c>
+      <c r="I11">
+        <v>-0.02154769225092783</v>
+      </c>
+      <c r="J11">
+        <v>0.02910816106337769</v>
+      </c>
+      <c r="K11">
+        <v>-0.008017539942476924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.001060068156489182</v>
+        <v>0.01549423240528078</v>
       </c>
       <c r="C12">
-        <v>-0.04485299768191776</v>
+        <v>0.05474800310644511</v>
       </c>
       <c r="D12">
-        <v>0.03401673225818924</v>
+        <v>0.02543373394101701</v>
       </c>
       <c r="E12">
-        <v>0.01555388622610517</v>
+        <v>-0.01906211496030038</v>
       </c>
       <c r="F12">
-        <v>0.02594063014715966</v>
+        <v>-0.007782564398190943</v>
       </c>
       <c r="G12">
-        <v>-0.05817095321266764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02944133161986103</v>
+      </c>
+      <c r="H12">
+        <v>-0.01327543159234275</v>
+      </c>
+      <c r="I12">
+        <v>-0.02562411063181622</v>
+      </c>
+      <c r="J12">
+        <v>0.01884395918988549</v>
+      </c>
+      <c r="K12">
+        <v>0.001324733901198464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.006402170518507222</v>
+        <v>0.003237089025818382</v>
       </c>
       <c r="C13">
-        <v>-0.1263003204590924</v>
+        <v>0.1167380489790597</v>
       </c>
       <c r="D13">
-        <v>0.07529488556218511</v>
+        <v>0.04132231414649509</v>
       </c>
       <c r="E13">
-        <v>-0.05891578056703134</v>
+        <v>-0.1031387012009203</v>
       </c>
       <c r="F13">
-        <v>0.06646443246239715</v>
+        <v>0.1259288521815707</v>
       </c>
       <c r="G13">
-        <v>-0.1689733273460099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1427453581824698</v>
+      </c>
+      <c r="H13">
+        <v>-0.1293981797827264</v>
+      </c>
+      <c r="I13">
+        <v>0.005312819941698784</v>
+      </c>
+      <c r="J13">
+        <v>-0.2149477974729287</v>
+      </c>
+      <c r="K13">
+        <v>-0.2470186017216142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.007101327273170058</v>
+        <v>0.02015016927710967</v>
       </c>
       <c r="C14">
-        <v>-0.07399208902714779</v>
+        <v>0.07443503139389814</v>
       </c>
       <c r="D14">
-        <v>0.04055158909208419</v>
+        <v>0.04861828321095599</v>
       </c>
       <c r="E14">
-        <v>-0.03048424376705592</v>
+        <v>-0.04229538153190471</v>
       </c>
       <c r="F14">
-        <v>0.02797610950353419</v>
+        <v>0.0120100405179492</v>
       </c>
       <c r="G14">
-        <v>-0.08195612651346451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.1022057770544101</v>
+      </c>
+      <c r="H14">
+        <v>-0.1706806878251101</v>
+      </c>
+      <c r="I14">
+        <v>-0.09009353182934235</v>
+      </c>
+      <c r="J14">
+        <v>0.011282602322901</v>
+      </c>
+      <c r="K14">
+        <v>-0.1232605905698138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.002127795657843543</v>
+        <v>0.003389289248248694</v>
       </c>
       <c r="C15">
-        <v>-0.09887101993436243</v>
+        <v>0.08201579948471457</v>
       </c>
       <c r="D15">
-        <v>0.04618764114166194</v>
+        <v>0.03374617978833</v>
       </c>
       <c r="E15">
-        <v>-0.03875690739167871</v>
+        <v>0.0102596980649051</v>
       </c>
       <c r="F15">
-        <v>-0.009880455136022332</v>
+        <v>0.02965974176773735</v>
       </c>
       <c r="G15">
-        <v>-0.03996281458451031</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03460054648812107</v>
+      </c>
+      <c r="H15">
+        <v>-0.07737860740129732</v>
+      </c>
+      <c r="I15">
+        <v>-0.05963779654050338</v>
+      </c>
+      <c r="J15">
+        <v>0.01897287250867479</v>
+      </c>
+      <c r="K15">
+        <v>-0.06660384862657633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.006797094901652629</v>
+        <v>0.01524206323063773</v>
       </c>
       <c r="C16">
-        <v>-0.05642359530069899</v>
+        <v>0.06155037960300748</v>
       </c>
       <c r="D16">
-        <v>0.02465481777337351</v>
+        <v>0.02675475412900243</v>
       </c>
       <c r="E16">
-        <v>0.01388508516420759</v>
+        <v>0.001862752872923561</v>
       </c>
       <c r="F16">
-        <v>0.009894324588363626</v>
+        <v>-0.005741121366872194</v>
       </c>
       <c r="G16">
-        <v>-0.03110566095313608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01092691340729797</v>
+      </c>
+      <c r="H16">
+        <v>-0.0140135441091225</v>
+      </c>
+      <c r="I16">
+        <v>-0.01774309095749074</v>
+      </c>
+      <c r="J16">
+        <v>0.02127881726402465</v>
+      </c>
+      <c r="K16">
+        <v>0.007305675245875085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.009219163698708554</v>
+        <v>0.01503238332461421</v>
       </c>
       <c r="C20">
-        <v>-0.08579245336602163</v>
+        <v>0.08515735765762415</v>
       </c>
       <c r="D20">
-        <v>0.03834768295589239</v>
+        <v>0.02607043289702632</v>
       </c>
       <c r="E20">
-        <v>0.02403543696279836</v>
+        <v>0.02227131940643401</v>
       </c>
       <c r="F20">
-        <v>0.001719777619149586</v>
+        <v>-0.009816353388813362</v>
       </c>
       <c r="G20">
-        <v>-0.09990319180979414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04402282880958152</v>
+      </c>
+      <c r="H20">
+        <v>-0.06007527800855768</v>
+      </c>
+      <c r="I20">
+        <v>-0.03813757260296124</v>
+      </c>
+      <c r="J20">
+        <v>0.02081071785395475</v>
+      </c>
+      <c r="K20">
+        <v>0.009188512390716122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.002217656092469548</v>
+        <v>0.01308277797067499</v>
       </c>
       <c r="C21">
-        <v>-0.09305411385112401</v>
+        <v>0.0726498583041939</v>
       </c>
       <c r="D21">
-        <v>-0.01507157291288782</v>
+        <v>0.01766653857778848</v>
       </c>
       <c r="E21">
-        <v>-0.03661934951728212</v>
+        <v>-0.09148588154069541</v>
       </c>
       <c r="F21">
-        <v>0.06384331128213441</v>
+        <v>0.03205428599465997</v>
       </c>
       <c r="G21">
-        <v>-0.03352699235949495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03759625630853886</v>
+      </c>
+      <c r="H21">
+        <v>-0.1377797396765464</v>
+      </c>
+      <c r="I21">
+        <v>-0.03045601527684218</v>
+      </c>
+      <c r="J21">
+        <v>-0.01902406506825783</v>
+      </c>
+      <c r="K21">
+        <v>-0.04507376262930569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01133100480328645</v>
+        <v>0.003038239669396788</v>
       </c>
       <c r="C22">
-        <v>-0.2492014216265388</v>
+        <v>0.1725876872803244</v>
       </c>
       <c r="D22">
-        <v>-0.08172283547672238</v>
+        <v>0.01746994992627424</v>
       </c>
       <c r="E22">
-        <v>-0.291139339284861</v>
+        <v>0.1480558000671291</v>
       </c>
       <c r="F22">
-        <v>-0.3143210834288769</v>
+        <v>0.5077080959006558</v>
       </c>
       <c r="G22">
-        <v>0.07169653152380294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.02460008876407322</v>
+      </c>
+      <c r="H22">
+        <v>0.2672140398578931</v>
+      </c>
+      <c r="I22">
+        <v>0.1789557759086569</v>
+      </c>
+      <c r="J22">
+        <v>0.006075795980540684</v>
+      </c>
+      <c r="K22">
+        <v>-0.1791026283499421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01274732345767491</v>
+        <v>0.008254470245672666</v>
       </c>
       <c r="C23">
-        <v>-0.2518705467267379</v>
+        <v>0.1763473896259329</v>
       </c>
       <c r="D23">
-        <v>-0.08624846190262672</v>
+        <v>0.01730490834991489</v>
       </c>
       <c r="E23">
-        <v>-0.2860430935929271</v>
+        <v>0.1420674919576077</v>
       </c>
       <c r="F23">
-        <v>-0.3091783998071476</v>
+        <v>0.4935360591451182</v>
       </c>
       <c r="G23">
-        <v>0.07124864988953335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.02200905008532073</v>
+      </c>
+      <c r="H23">
+        <v>0.2523653679703264</v>
+      </c>
+      <c r="I23">
+        <v>0.1607645062040533</v>
+      </c>
+      <c r="J23">
+        <v>0.010415880817072</v>
+      </c>
+      <c r="K23">
+        <v>-0.1676528203238955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.002010718077213953</v>
+        <v>0.01614367266646785</v>
       </c>
       <c r="C24">
-        <v>-0.05327424646458452</v>
+        <v>0.06493551835406039</v>
       </c>
       <c r="D24">
-        <v>0.04015639355747801</v>
+        <v>0.03997609260605857</v>
       </c>
       <c r="E24">
-        <v>0.01738503990807139</v>
+        <v>0.00365350673430072</v>
       </c>
       <c r="F24">
-        <v>0.001449475523854977</v>
+        <v>-0.006518103434028276</v>
       </c>
       <c r="G24">
-        <v>-0.05671378440989461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02847069214105688</v>
+      </c>
+      <c r="H24">
+        <v>-0.0283899900452727</v>
+      </c>
+      <c r="I24">
+        <v>-0.02569910625089068</v>
+      </c>
+      <c r="J24">
+        <v>0.02310111204552294</v>
+      </c>
+      <c r="K24">
+        <v>-0.001201473155517852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.003469069670465792</v>
+        <v>0.01999654445625603</v>
       </c>
       <c r="C25">
-        <v>-0.06354407401514507</v>
+        <v>0.06797328580943984</v>
       </c>
       <c r="D25">
-        <v>0.02088846649467351</v>
+        <v>0.03311103751359429</v>
       </c>
       <c r="E25">
-        <v>0.02124366114723782</v>
+        <v>0.005156997555144121</v>
       </c>
       <c r="F25">
-        <v>0.004210544969616078</v>
+        <v>-0.004378907852646891</v>
       </c>
       <c r="G25">
-        <v>-0.05793536788384053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02171552401146146</v>
+      </c>
+      <c r="H25">
+        <v>-0.0207810167440981</v>
+      </c>
+      <c r="I25">
+        <v>-0.03216252172696952</v>
+      </c>
+      <c r="J25">
+        <v>0.008175867469152758</v>
+      </c>
+      <c r="K25">
+        <v>-0.01345806077616612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-8.957491893854092e-06</v>
+        <v>0.0226133450957597</v>
       </c>
       <c r="C26">
-        <v>-0.04775326295258182</v>
+        <v>0.05689858878591805</v>
       </c>
       <c r="D26">
-        <v>0.06908083571773618</v>
+        <v>0.06274689893570576</v>
       </c>
       <c r="E26">
-        <v>-0.007649525009428186</v>
+        <v>0.006141023154704962</v>
       </c>
       <c r="F26">
-        <v>0.03343058639850502</v>
+        <v>-0.01183507261990821</v>
       </c>
       <c r="G26">
-        <v>-0.03554759528163319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01001846054671134</v>
+      </c>
+      <c r="H26">
+        <v>-0.08286973509632861</v>
+      </c>
+      <c r="I26">
+        <v>-0.07333172856077343</v>
+      </c>
+      <c r="J26">
+        <v>0.04285149730300532</v>
+      </c>
+      <c r="K26">
+        <v>0.1241448482761854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3649219507161778</v>
+        <v>0.3136638188199657</v>
       </c>
       <c r="C28">
-        <v>0.07884331925268671</v>
+        <v>-0.1068721074370211</v>
       </c>
       <c r="D28">
-        <v>-0.01493710059351285</v>
+        <v>-0.0331698650357759</v>
       </c>
       <c r="E28">
-        <v>0.05204684530341665</v>
+        <v>-0.0004836751265800273</v>
       </c>
       <c r="F28">
-        <v>0.05741687557760831</v>
+        <v>0.05189040222518804</v>
       </c>
       <c r="G28">
-        <v>0.07554663020165038</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1093055675644879</v>
+      </c>
+      <c r="H28">
+        <v>-0.07232808045201271</v>
+      </c>
+      <c r="I28">
+        <v>-0.006337463989950821</v>
+      </c>
+      <c r="J28">
+        <v>-0.2116833831768055</v>
+      </c>
+      <c r="K28">
+        <v>0.03314281289786995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.007314277149715143</v>
+        <v>0.01542421479939156</v>
       </c>
       <c r="C29">
-        <v>-0.07869309732785752</v>
+        <v>0.08329407656831629</v>
       </c>
       <c r="D29">
-        <v>0.04699175395297524</v>
+        <v>0.05165856445198477</v>
       </c>
       <c r="E29">
-        <v>-0.02049870069866653</v>
+        <v>-0.04620264378786349</v>
       </c>
       <c r="F29">
-        <v>0.02912729249623099</v>
+        <v>0.01582384438767636</v>
       </c>
       <c r="G29">
-        <v>-0.1170119600094542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1502645710469776</v>
+      </c>
+      <c r="H29">
+        <v>-0.2349622719925801</v>
+      </c>
+      <c r="I29">
+        <v>-0.1424402955406612</v>
+      </c>
+      <c r="J29">
+        <v>-0.01149172280918374</v>
+      </c>
+      <c r="K29">
+        <v>-0.1912357657248481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.01852566954837539</v>
+        <v>0.03186739198518026</v>
       </c>
       <c r="C30">
-        <v>-0.1683028023753222</v>
+        <v>0.1430932945433712</v>
       </c>
       <c r="D30">
-        <v>0.06789001718249767</v>
+        <v>0.05621698511271547</v>
       </c>
       <c r="E30">
-        <v>-0.0223893222768818</v>
+        <v>0.02185545088579951</v>
       </c>
       <c r="F30">
-        <v>-0.05024659698221502</v>
+        <v>0.054569372816339</v>
       </c>
       <c r="G30">
-        <v>-0.01486461795285694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01061011103702122</v>
+      </c>
+      <c r="H30">
+        <v>-0.03541631547203913</v>
+      </c>
+      <c r="I30">
+        <v>-0.01166530645270476</v>
+      </c>
+      <c r="J30">
+        <v>0.06148795234206748</v>
+      </c>
+      <c r="K30">
+        <v>0.08966356579925194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.004242594735832743</v>
+        <v>0.01391923056944392</v>
       </c>
       <c r="C31">
-        <v>-0.05439110926925286</v>
+        <v>0.07982840849254844</v>
       </c>
       <c r="D31">
-        <v>0.03256179452628352</v>
+        <v>0.04128040388046591</v>
       </c>
       <c r="E31">
-        <v>0.02107621535423018</v>
+        <v>-0.001363913394655196</v>
       </c>
       <c r="F31">
-        <v>0.0164077347859113</v>
+        <v>0.003210770748704773</v>
       </c>
       <c r="G31">
-        <v>-0.02651875962163121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01847034397049386</v>
+      </c>
+      <c r="H31">
+        <v>-0.02765479919445918</v>
+      </c>
+      <c r="I31">
+        <v>-0.03302030211275196</v>
+      </c>
+      <c r="J31">
+        <v>0.01031675811343854</v>
+      </c>
+      <c r="K31">
+        <v>-0.01967075402108872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.0144940625218675</v>
+        <v>0.02146323189910813</v>
       </c>
       <c r="C32">
-        <v>-0.08602106066584224</v>
+        <v>0.05197355431205309</v>
       </c>
       <c r="D32">
-        <v>-0.0002255837030416495</v>
+        <v>0.02477915666502582</v>
       </c>
       <c r="E32">
-        <v>-0.1435259824057999</v>
+        <v>-0.05094594126993163</v>
       </c>
       <c r="F32">
-        <v>-0.003252401895671795</v>
+        <v>0.107263164561564</v>
       </c>
       <c r="G32">
-        <v>-0.08776274799505913</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.08642507545939415</v>
+      </c>
+      <c r="H32">
+        <v>-0.1479075251872686</v>
+      </c>
+      <c r="I32">
+        <v>-0.04085440409644563</v>
+      </c>
+      <c r="J32">
+        <v>-0.2694233591115955</v>
+      </c>
+      <c r="K32">
+        <v>-0.03819282535295592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01002117596659101</v>
+        <v>0.01596867292858109</v>
       </c>
       <c r="C33">
-        <v>-0.08839016571291804</v>
+        <v>0.1037504105087895</v>
       </c>
       <c r="D33">
-        <v>0.06444451948135539</v>
+        <v>0.05151437795618737</v>
       </c>
       <c r="E33">
-        <v>-0.008437632387878832</v>
+        <v>0.00949278651026462</v>
       </c>
       <c r="F33">
-        <v>0.01161006816200602</v>
+        <v>0.0180877657188723</v>
       </c>
       <c r="G33">
-        <v>-0.04699712174706051</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03327464223670974</v>
+      </c>
+      <c r="H33">
+        <v>-0.04598324853107237</v>
+      </c>
+      <c r="I33">
+        <v>-0.03065949471983803</v>
+      </c>
+      <c r="J33">
+        <v>-0.01839150174835202</v>
+      </c>
+      <c r="K33">
+        <v>0.009991811720955656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.001816018708603868</v>
+        <v>0.01629290170464465</v>
       </c>
       <c r="C34">
-        <v>-0.04678797578490577</v>
+        <v>0.04791414606895325</v>
       </c>
       <c r="D34">
-        <v>0.01938264264019662</v>
+        <v>0.01977108156975296</v>
       </c>
       <c r="E34">
-        <v>0.002889039545841921</v>
+        <v>-0.006062995687865861</v>
       </c>
       <c r="F34">
-        <v>0.02199325908373146</v>
+        <v>-0.008290984065569331</v>
       </c>
       <c r="G34">
-        <v>-0.0336589530776748</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01605963713993391</v>
+      </c>
+      <c r="H34">
+        <v>0.001270515604000108</v>
+      </c>
+      <c r="I34">
+        <v>-0.01651971946510591</v>
+      </c>
+      <c r="J34">
+        <v>0.01636573134634975</v>
+      </c>
+      <c r="K34">
+        <v>-2.154503635904766e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002777160904510044</v>
+        <v>0.01004972564034242</v>
       </c>
       <c r="C35">
-        <v>-0.02716231411544224</v>
+        <v>0.04509842045570255</v>
       </c>
       <c r="D35">
-        <v>0.008304459312784888</v>
+        <v>0.02226491047862073</v>
       </c>
       <c r="E35">
-        <v>-0.006285021955035617</v>
+        <v>-0.009891088415178708</v>
       </c>
       <c r="F35">
-        <v>0.007401871970508346</v>
+        <v>0.009828938878334401</v>
       </c>
       <c r="G35">
-        <v>-0.04029389606072593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.06401508797178958</v>
+      </c>
+      <c r="H35">
+        <v>-0.1205242043733385</v>
+      </c>
+      <c r="I35">
+        <v>-0.09040139668289862</v>
+      </c>
+      <c r="J35">
+        <v>-0.01655314975023266</v>
+      </c>
+      <c r="K35">
+        <v>-0.1485313511746365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.00533750471913999</v>
+        <v>0.01508897605343138</v>
       </c>
       <c r="C36">
-        <v>-0.05055469010230376</v>
+        <v>0.04765797805700887</v>
       </c>
       <c r="D36">
-        <v>0.05496309627875483</v>
+        <v>0.04476201933616415</v>
       </c>
       <c r="E36">
-        <v>0.00196395960603907</v>
+        <v>0.005401916598109974</v>
       </c>
       <c r="F36">
-        <v>0.01344408794778911</v>
+        <v>0.01340235005282347</v>
       </c>
       <c r="G36">
-        <v>-0.0310040433918722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.007172976226475636</v>
+      </c>
+      <c r="H36">
+        <v>-0.0715204478221486</v>
+      </c>
+      <c r="I36">
+        <v>-0.0362641859382873</v>
+      </c>
+      <c r="J36">
+        <v>0.01142897309035567</v>
+      </c>
+      <c r="K36">
+        <v>0.04800336167340723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03110141070645817</v>
+        <v>0.01023896021010032</v>
       </c>
       <c r="C38">
-        <v>-0.05872993884087692</v>
+        <v>0.05918848310263953</v>
       </c>
       <c r="D38">
-        <v>0.04917186306901233</v>
+        <v>0.0396082823801379</v>
       </c>
       <c r="E38">
-        <v>0.01864996289484869</v>
+        <v>0.03512812070962804</v>
       </c>
       <c r="F38">
-        <v>-0.001231834745955326</v>
+        <v>0.01861758369058772</v>
       </c>
       <c r="G38">
-        <v>-0.0374375456132551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01787879506733438</v>
+      </c>
+      <c r="H38">
+        <v>-0.08980535098871817</v>
+      </c>
+      <c r="I38">
+        <v>-0.005635348044792098</v>
+      </c>
+      <c r="J38">
+        <v>-0.05201670166265902</v>
+      </c>
+      <c r="K38">
+        <v>-0.02387774760156117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.001060409148207752</v>
+        <v>0.02150631182061458</v>
       </c>
       <c r="C39">
-        <v>-0.1266831422254292</v>
+        <v>0.1332161618793485</v>
       </c>
       <c r="D39">
-        <v>0.05556481179714434</v>
+        <v>0.05837936160165971</v>
       </c>
       <c r="E39">
-        <v>0.007476465508906511</v>
+        <v>-0.01318189210766137</v>
       </c>
       <c r="F39">
-        <v>0.009772228926230237</v>
+        <v>-0.01301625286969252</v>
       </c>
       <c r="G39">
-        <v>-0.07927537121298044</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04552786593551151</v>
+      </c>
+      <c r="H39">
+        <v>-0.0414904549369799</v>
+      </c>
+      <c r="I39">
+        <v>-0.005927044032207973</v>
+      </c>
+      <c r="J39">
+        <v>0.1015212760028364</v>
+      </c>
+      <c r="K39">
+        <v>0.03097799722058679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.001807500074052115</v>
+        <v>0.01338874052795505</v>
       </c>
       <c r="C40">
-        <v>-0.0287115566809621</v>
+        <v>0.05622663110558318</v>
       </c>
       <c r="D40">
-        <v>0.0225016510787386</v>
+        <v>0.04236515425026027</v>
       </c>
       <c r="E40">
-        <v>-0.1329658559610169</v>
+        <v>-0.0314557856936851</v>
       </c>
       <c r="F40">
-        <v>-0.05919034485422475</v>
+        <v>0.03366411413436453</v>
       </c>
       <c r="G40">
-        <v>-0.09591085064290845</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1570950610868274</v>
+      </c>
+      <c r="H40">
+        <v>0.00434115306267694</v>
+      </c>
+      <c r="I40">
+        <v>-0.04719091915807111</v>
+      </c>
+      <c r="J40">
+        <v>0.0002176777542336861</v>
+      </c>
+      <c r="K40">
+        <v>-0.2762788106014332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01273240986490299</v>
+        <v>0.022596758637791</v>
       </c>
       <c r="C41">
-        <v>-0.02348082930026455</v>
+        <v>0.04754660109902421</v>
       </c>
       <c r="D41">
-        <v>0.006530367959100986</v>
+        <v>0.01664885924542157</v>
       </c>
       <c r="E41">
-        <v>0.01183512955744892</v>
+        <v>-0.0009467834392203067</v>
       </c>
       <c r="F41">
-        <v>0.01540901040460613</v>
+        <v>-0.01923135937225726</v>
       </c>
       <c r="G41">
-        <v>0.03297752575817681</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.004535419569671927</v>
+      </c>
+      <c r="H41">
+        <v>-0.02139800942747231</v>
+      </c>
+      <c r="I41">
+        <v>-0.006149351457557043</v>
+      </c>
+      <c r="J41">
+        <v>-0.02968960102490531</v>
+      </c>
+      <c r="K41">
+        <v>-0.04348030740625629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.005766536887934963</v>
+        <v>0.01859468834083559</v>
       </c>
       <c r="C43">
-        <v>-0.02122019578214398</v>
+        <v>0.04348703195000171</v>
       </c>
       <c r="D43">
-        <v>0.01983897768844237</v>
+        <v>0.02915035054885487</v>
       </c>
       <c r="E43">
-        <v>0.006063543923096394</v>
+        <v>0.01015855257444522</v>
       </c>
       <c r="F43">
-        <v>-0.002030586351485399</v>
+        <v>-0.008840520438631353</v>
       </c>
       <c r="G43">
-        <v>-0.003899904611515128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.007453658005302606</v>
+      </c>
+      <c r="H43">
+        <v>-0.03929297163325739</v>
+      </c>
+      <c r="I43">
+        <v>-0.006859693046118651</v>
+      </c>
+      <c r="J43">
+        <v>0.001140149961539808</v>
+      </c>
+      <c r="K43">
+        <v>-0.03451486014297132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01921384061067701</v>
+        <v>0.01574275928468669</v>
       </c>
       <c r="C44">
-        <v>-0.0977720496742191</v>
+        <v>0.09819910107223656</v>
       </c>
       <c r="D44">
-        <v>0.03764861921986613</v>
+        <v>0.05716431883630589</v>
       </c>
       <c r="E44">
-        <v>-0.02974828979849577</v>
+        <v>0.03619216364754679</v>
       </c>
       <c r="F44">
-        <v>-0.02666379990418262</v>
+        <v>0.05703033443466617</v>
       </c>
       <c r="G44">
-        <v>-0.05941042116165694</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0512137529951147</v>
+      </c>
+      <c r="H44">
+        <v>-0.04412566734236273</v>
+      </c>
+      <c r="I44">
+        <v>-0.01404392159213832</v>
+      </c>
+      <c r="J44">
+        <v>0.05357757849924472</v>
+      </c>
+      <c r="K44">
+        <v>0.08006171515499608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.004059919280109341</v>
+        <v>0.004178238976641507</v>
       </c>
       <c r="C46">
-        <v>-0.06389015848244253</v>
+        <v>0.06480304999496772</v>
       </c>
       <c r="D46">
-        <v>0.04785698508418559</v>
+        <v>0.02854083634030071</v>
       </c>
       <c r="E46">
-        <v>-0.0180978291731421</v>
+        <v>-0.006908898674657038</v>
       </c>
       <c r="F46">
-        <v>0.007498151134611496</v>
+        <v>-0.003699028444170264</v>
       </c>
       <c r="G46">
-        <v>-0.06786815495198152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05174255743906957</v>
+      </c>
+      <c r="H46">
+        <v>-0.08727629081468871</v>
+      </c>
+      <c r="I46">
+        <v>-0.03457397615138643</v>
+      </c>
+      <c r="J46">
+        <v>2.975157635305699e-05</v>
+      </c>
+      <c r="K46">
+        <v>-0.07846341449143229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.002469788613505746</v>
+        <v>0.02138896721617162</v>
       </c>
       <c r="C47">
-        <v>-0.06542058335082576</v>
+        <v>0.07763816407777145</v>
       </c>
       <c r="D47">
-        <v>0.04961597389470524</v>
+        <v>0.04280653629475798</v>
       </c>
       <c r="E47">
-        <v>0.01977904657422567</v>
+        <v>-0.00527863083777866</v>
       </c>
       <c r="F47">
-        <v>0.05389753852129865</v>
+        <v>-0.01189944456683651</v>
       </c>
       <c r="G47">
-        <v>-0.04669493161186421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02100714223951722</v>
+      </c>
+      <c r="H47">
+        <v>-0.06312180034107484</v>
+      </c>
+      <c r="I47">
+        <v>-0.02767513263294819</v>
+      </c>
+      <c r="J47">
+        <v>-0.01796101603960039</v>
+      </c>
+      <c r="K47">
+        <v>-0.02710488652394169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.004678554691555642</v>
+        <v>0.01915539208212658</v>
       </c>
       <c r="C48">
-        <v>-0.05157727781286236</v>
+        <v>0.04885453527736699</v>
       </c>
       <c r="D48">
-        <v>0.05989818733072917</v>
+        <v>0.05305504228942591</v>
       </c>
       <c r="E48">
-        <v>-0.0004129803084824153</v>
+        <v>0.01099323215055633</v>
       </c>
       <c r="F48">
-        <v>0.007757370020398923</v>
+        <v>0.008674395350981233</v>
       </c>
       <c r="G48">
-        <v>-0.03838342510005577</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01048083920694739</v>
+      </c>
+      <c r="H48">
+        <v>-0.07924591859480992</v>
+      </c>
+      <c r="I48">
+        <v>-0.07027949929743607</v>
+      </c>
+      <c r="J48">
+        <v>0.0306027543144684</v>
+      </c>
+      <c r="K48">
+        <v>0.1024225055489243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01361114053319839</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.03730940647776746</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007422612352391418</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.004738696196298588</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.06199634347560405</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.0341791353404245</v>
+      </c>
+      <c r="H49">
+        <v>0.02921529002409256</v>
+      </c>
+      <c r="I49">
+        <v>0.004801888938718973</v>
+      </c>
+      <c r="J49">
+        <v>0.07664206324394676</v>
+      </c>
+      <c r="K49">
+        <v>0.0357903305377091</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.001464646799180118</v>
+        <v>0.01391868857935955</v>
       </c>
       <c r="C50">
-        <v>-0.0675724903569636</v>
+        <v>0.0778581895095446</v>
       </c>
       <c r="D50">
-        <v>0.02715523126038808</v>
+        <v>0.03061839743824375</v>
       </c>
       <c r="E50">
-        <v>0.01088636600849575</v>
+        <v>0.01043510964098668</v>
       </c>
       <c r="F50">
-        <v>-0.002019784179228186</v>
+        <v>0.01235550614516795</v>
       </c>
       <c r="G50">
-        <v>-0.03965421121969336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>5.508268297506103e-05</v>
+      </c>
+      <c r="H50">
+        <v>-0.04402725392776737</v>
+      </c>
+      <c r="I50">
+        <v>-0.04268356735279988</v>
+      </c>
+      <c r="J50">
+        <v>-0.0466922991339147</v>
+      </c>
+      <c r="K50">
+        <v>-0.01075407326891627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002621871564878151</v>
+        <v>-0.006842697590488647</v>
       </c>
       <c r="C51">
-        <v>-0.07098804441186422</v>
+        <v>0.0346491040617188</v>
       </c>
       <c r="D51">
-        <v>0.03889341145979033</v>
+        <v>0.02238540244001055</v>
       </c>
       <c r="E51">
-        <v>-0.04793332385049105</v>
+        <v>-0.007173185226782387</v>
       </c>
       <c r="F51">
-        <v>-0.008050985600827822</v>
+        <v>0.02768260437079254</v>
       </c>
       <c r="G51">
-        <v>-0.008515184828864234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03745519804219682</v>
+      </c>
+      <c r="H51">
+        <v>-0.1013332747384826</v>
+      </c>
+      <c r="I51">
+        <v>-0.03158473470852619</v>
+      </c>
+      <c r="J51">
+        <v>0.01040677222742309</v>
+      </c>
+      <c r="K51">
+        <v>0.09964696333914239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.0314574955537429</v>
+        <v>0.0585766830380363</v>
       </c>
       <c r="C53">
-        <v>-0.1202607092471601</v>
+        <v>0.1321570046499971</v>
       </c>
       <c r="D53">
-        <v>0.0710720935225861</v>
+        <v>0.06048245321238219</v>
       </c>
       <c r="E53">
-        <v>0.1317430859026501</v>
+        <v>-0.02308025564942934</v>
       </c>
       <c r="F53">
-        <v>0.05738898750531812</v>
+        <v>-0.06954203005975207</v>
       </c>
       <c r="G53">
-        <v>0.06829260502003641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08946409160144989</v>
+      </c>
+      <c r="H53">
+        <v>0.0297638771034493</v>
+      </c>
+      <c r="I53">
+        <v>-0.008543190830919376</v>
+      </c>
+      <c r="J53">
+        <v>-0.02661278471676876</v>
+      </c>
+      <c r="K53">
+        <v>-0.008325314273163142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.002828705523823342</v>
+        <v>0.01662995284353378</v>
       </c>
       <c r="C54">
-        <v>-0.06675180264967664</v>
+        <v>0.07155990887560239</v>
       </c>
       <c r="D54">
-        <v>0.01346539243794674</v>
+        <v>0.01332787260696276</v>
       </c>
       <c r="E54">
-        <v>0.02096973819213323</v>
+        <v>-0.003781384948900386</v>
       </c>
       <c r="F54">
-        <v>0.002028589019671744</v>
+        <v>-0.009303971891914746</v>
       </c>
       <c r="G54">
-        <v>-0.03424305489455315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02356933861425765</v>
+      </c>
+      <c r="H54">
+        <v>-0.03102576233505439</v>
+      </c>
+      <c r="I54">
+        <v>-0.05064052992759456</v>
+      </c>
+      <c r="J54">
+        <v>0.01614199463930628</v>
+      </c>
+      <c r="K54">
+        <v>0.001607738528795412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0158390029144157</v>
+        <v>0.03032022598927083</v>
       </c>
       <c r="C55">
-        <v>-0.07784828177401648</v>
+        <v>0.08462868241608626</v>
       </c>
       <c r="D55">
-        <v>0.06703233401809974</v>
+        <v>0.05586265104885865</v>
       </c>
       <c r="E55">
-        <v>0.05967240730276071</v>
+        <v>-0.01054057240332283</v>
       </c>
       <c r="F55">
-        <v>0.04300708520608739</v>
+        <v>-0.04743748511935811</v>
       </c>
       <c r="G55">
-        <v>0.007881100700328866</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03955155084089407</v>
+      </c>
+      <c r="H55">
+        <v>0.01678471515052184</v>
+      </c>
+      <c r="I55">
+        <v>-0.01052402268061654</v>
+      </c>
+      <c r="J55">
+        <v>0.008690425658534718</v>
+      </c>
+      <c r="K55">
+        <v>0.0009875891125677094</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01490494810116246</v>
+        <v>0.04532551973734733</v>
       </c>
       <c r="C56">
-        <v>-0.1506783439210862</v>
+        <v>0.1503110775547601</v>
       </c>
       <c r="D56">
-        <v>0.07919791907409747</v>
+        <v>0.08635705792203062</v>
       </c>
       <c r="E56">
-        <v>0.1075738276666081</v>
+        <v>-0.05558951984141389</v>
       </c>
       <c r="F56">
-        <v>0.08053431536137716</v>
+        <v>-0.08919103284340811</v>
       </c>
       <c r="G56">
-        <v>0.1154785910439527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1695134853454334</v>
+      </c>
+      <c r="H56">
+        <v>0.03049256875526221</v>
+      </c>
+      <c r="I56">
+        <v>-0.01462889937070167</v>
+      </c>
+      <c r="J56">
+        <v>-0.01162367789450338</v>
+      </c>
+      <c r="K56">
+        <v>0.02037729175504589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02185820672718765</v>
+        <v>0.01776769414279095</v>
       </c>
       <c r="C58">
-        <v>-0.2979899585164862</v>
+        <v>0.179871769685917</v>
       </c>
       <c r="D58">
-        <v>-0.01706056749643402</v>
+        <v>0.04027065781592845</v>
       </c>
       <c r="E58">
-        <v>-0.1397804380299461</v>
+        <v>0.08016287711036958</v>
       </c>
       <c r="F58">
-        <v>-0.2726488340409296</v>
+        <v>0.3128755968637013</v>
       </c>
       <c r="G58">
-        <v>0.07420825496811667</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.0699800009496112</v>
+      </c>
+      <c r="H58">
+        <v>-0.09911202630303159</v>
+      </c>
+      <c r="I58">
+        <v>0.03131155087402614</v>
+      </c>
+      <c r="J58">
+        <v>-0.0531768676038392</v>
+      </c>
+      <c r="K58">
+        <v>0.3594895351064896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2876571148630106</v>
+        <v>0.2896596483385998</v>
       </c>
       <c r="C59">
-        <v>-0.00166060375825486</v>
+        <v>-0.04505751477102907</v>
       </c>
       <c r="D59">
-        <v>-0.008930251101838323</v>
+        <v>-0.007313660834362808</v>
       </c>
       <c r="E59">
-        <v>-0.05726933488398687</v>
+        <v>-0.01310509954483373</v>
       </c>
       <c r="F59">
-        <v>0.0468198649538177</v>
+        <v>0.04901326705964743</v>
       </c>
       <c r="G59">
-        <v>0.01449005223499168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001570444855751139</v>
+      </c>
+      <c r="H59">
+        <v>0.01465055323810247</v>
+      </c>
+      <c r="I59">
+        <v>0.02392490620714357</v>
+      </c>
+      <c r="J59">
+        <v>-0.03043833268563043</v>
+      </c>
+      <c r="K59">
+        <v>-0.02505731964026041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1052343556078724</v>
+        <v>0.1473687207202112</v>
       </c>
       <c r="C60">
-        <v>-0.1386989467822625</v>
+        <v>0.1545242706056692</v>
       </c>
       <c r="D60">
-        <v>0.08557577846577094</v>
+        <v>0.04692156288122837</v>
       </c>
       <c r="E60">
-        <v>0.05859366377000473</v>
+        <v>-0.05353793091603753</v>
       </c>
       <c r="F60">
-        <v>0.1720263037474583</v>
+        <v>-0.1198647391491063</v>
       </c>
       <c r="G60">
-        <v>-0.2505973046014956</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.223009531770051</v>
+      </c>
+      <c r="H60">
+        <v>0.2421491704974423</v>
+      </c>
+      <c r="I60">
+        <v>0.1001208447590596</v>
+      </c>
+      <c r="J60">
+        <v>0.01718639964782791</v>
+      </c>
+      <c r="K60">
+        <v>0.04174386977296676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.001094445414100956</v>
+        <v>0.02216804175331649</v>
       </c>
       <c r="C61">
-        <v>-0.08262032214997068</v>
+        <v>0.09772797689520279</v>
       </c>
       <c r="D61">
-        <v>0.06455088922698206</v>
+        <v>0.05521016956434727</v>
       </c>
       <c r="E61">
-        <v>0.02551637389479688</v>
+        <v>-0.01026554042207204</v>
       </c>
       <c r="F61">
-        <v>0.0302945047167838</v>
+        <v>-0.02671625033624224</v>
       </c>
       <c r="G61">
-        <v>-0.0819502001670859</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03183332818337636</v>
+      </c>
+      <c r="H61">
+        <v>-0.03580214411396351</v>
+      </c>
+      <c r="I61">
+        <v>-0.04710433406074871</v>
+      </c>
+      <c r="J61">
+        <v>0.03607611665750017</v>
+      </c>
+      <c r="K61">
+        <v>-0.01098186180339598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00309373155836392</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01336646692852616</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003279313491172823</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01194756751708029</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01638196325594493</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01717793669841179</v>
+      </c>
+      <c r="H62">
+        <v>0.01604575150580767</v>
+      </c>
+      <c r="I62">
+        <v>-0.05283668008947198</v>
+      </c>
+      <c r="J62">
+        <v>-0.01540052825957576</v>
+      </c>
+      <c r="K62">
+        <v>-0.0009196995812043234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0003877196067743676</v>
+        <v>0.02605003393353394</v>
       </c>
       <c r="C63">
-        <v>-0.0582373682349096</v>
+        <v>0.06522645038339343</v>
       </c>
       <c r="D63">
-        <v>0.04364790921501031</v>
+        <v>0.05895205341069332</v>
       </c>
       <c r="E63">
-        <v>0.03142419568008813</v>
+        <v>-0.00623939552110789</v>
       </c>
       <c r="F63">
-        <v>0.002918169818675522</v>
+        <v>-0.009391997557082428</v>
       </c>
       <c r="G63">
-        <v>-0.02728669356041743</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.008126325624865094</v>
+      </c>
+      <c r="H63">
+        <v>-0.04222457365348857</v>
+      </c>
+      <c r="I63">
+        <v>-0.05623944589055178</v>
+      </c>
+      <c r="J63">
+        <v>0.01333138975516475</v>
+      </c>
+      <c r="K63">
+        <v>-0.006028810002839789</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.005272314197808099</v>
+        <v>0.01624611766784404</v>
       </c>
       <c r="C64">
-        <v>-0.07767744775787246</v>
+        <v>0.09161953360142699</v>
       </c>
       <c r="D64">
-        <v>0.06684708856172115</v>
+        <v>0.03334968920403907</v>
       </c>
       <c r="E64">
-        <v>-0.001887772088378716</v>
+        <v>0.02829330783749724</v>
       </c>
       <c r="F64">
-        <v>-0.009731701819498475</v>
+        <v>0.02305563511019832</v>
       </c>
       <c r="G64">
-        <v>-0.06520775669064868</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07351689992141462</v>
+      </c>
+      <c r="H64">
+        <v>-0.0113889294828986</v>
+      </c>
+      <c r="I64">
+        <v>-0.06104656301079437</v>
+      </c>
+      <c r="J64">
+        <v>0.0626172076474856</v>
+      </c>
+      <c r="K64">
+        <v>-0.02026585234277964</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.001404151224657995</v>
+        <v>0.03019464054175175</v>
       </c>
       <c r="C65">
-        <v>-0.08054020407166185</v>
+        <v>0.09234374985444328</v>
       </c>
       <c r="D65">
-        <v>0.04081365352868886</v>
+        <v>0.0226021812991419</v>
       </c>
       <c r="E65">
-        <v>-0.03213732323270384</v>
+        <v>0.01711964407794419</v>
       </c>
       <c r="F65">
-        <v>-0.01126056843347217</v>
+        <v>0.001235858661932338</v>
       </c>
       <c r="G65">
-        <v>-0.04552884933708819</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.08310351142292591</v>
+      </c>
+      <c r="H65">
+        <v>-0.005336401354425369</v>
+      </c>
+      <c r="I65">
+        <v>0.03222564270165492</v>
+      </c>
+      <c r="J65">
+        <v>0.08634544584789743</v>
+      </c>
+      <c r="K65">
+        <v>0.08698715031622081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.00438911474201037</v>
+        <v>0.01625353062702994</v>
       </c>
       <c r="C66">
-        <v>-0.1704970315625585</v>
+        <v>0.1694131215844483</v>
       </c>
       <c r="D66">
-        <v>0.04725045381013664</v>
+        <v>0.05013084633710848</v>
       </c>
       <c r="E66">
-        <v>-0.03581035697812731</v>
+        <v>-0.01761871040532983</v>
       </c>
       <c r="F66">
-        <v>0.02345932633259564</v>
+        <v>0.004673777352913923</v>
       </c>
       <c r="G66">
-        <v>-0.1016080502098877</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03772925381708236</v>
+      </c>
+      <c r="H66">
+        <v>-0.05104088681037523</v>
+      </c>
+      <c r="I66">
+        <v>-0.02775346507396415</v>
+      </c>
+      <c r="J66">
+        <v>0.07102306180378776</v>
+      </c>
+      <c r="K66">
+        <v>0.02651002461362209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03018958216842939</v>
+        <v>0.01867911899040012</v>
       </c>
       <c r="C67">
-        <v>-0.03356418240871274</v>
+        <v>0.04996915874257033</v>
       </c>
       <c r="D67">
-        <v>0.06527790495104042</v>
+        <v>0.04082486584161431</v>
       </c>
       <c r="E67">
-        <v>0.04678323580285709</v>
+        <v>0.02663323226622934</v>
       </c>
       <c r="F67">
-        <v>0.01120569114374726</v>
+        <v>-0.0167226400496626</v>
       </c>
       <c r="G67">
-        <v>-0.04814695520895861</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.04130246161142519</v>
+      </c>
+      <c r="H67">
+        <v>-0.06718945264709805</v>
+      </c>
+      <c r="I67">
+        <v>0.01120567186080575</v>
+      </c>
+      <c r="J67">
+        <v>-0.04689408782731917</v>
+      </c>
+      <c r="K67">
+        <v>-0.03806451816658338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2939815616249445</v>
+        <v>0.294050419156939</v>
       </c>
       <c r="C68">
-        <v>0.02333884320940622</v>
+        <v>-0.06921149240134991</v>
       </c>
       <c r="D68">
-        <v>0.005331460245315046</v>
+        <v>-0.02414929174280968</v>
       </c>
       <c r="E68">
-        <v>-0.03419827632909097</v>
+        <v>-0.0005148801778129866</v>
       </c>
       <c r="F68">
-        <v>0.005252400264152291</v>
+        <v>0.04455633525720102</v>
       </c>
       <c r="G68">
-        <v>-0.00236137402093209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01819001735364518</v>
+      </c>
+      <c r="H68">
+        <v>-0.01155078830190098</v>
+      </c>
+      <c r="I68">
+        <v>-0.05790714680449989</v>
+      </c>
+      <c r="J68">
+        <v>-0.05150878710789885</v>
+      </c>
+      <c r="K68">
+        <v>0.01591979360789401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.007810934447671897</v>
+        <v>0.008152203063794449</v>
       </c>
       <c r="C69">
-        <v>-0.04333908001948225</v>
+        <v>0.04692603384681619</v>
       </c>
       <c r="D69">
-        <v>0.05466354521657191</v>
+        <v>0.02486804278672914</v>
       </c>
       <c r="E69">
-        <v>0.02219494343863435</v>
+        <v>-0.005919678119815808</v>
       </c>
       <c r="F69">
-        <v>-0.003141525115254749</v>
+        <v>-0.009542650051973169</v>
       </c>
       <c r="G69">
-        <v>-0.02060032340801266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02734515956389429</v>
+      </c>
+      <c r="H69">
+        <v>-0.02866727095369011</v>
+      </c>
+      <c r="I69">
+        <v>-0.01203675734829512</v>
+      </c>
+      <c r="J69">
+        <v>-0.02045636720151613</v>
+      </c>
+      <c r="K69">
+        <v>-0.002409574227303295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2899946086421567</v>
+        <v>0.2762709747687825</v>
       </c>
       <c r="C71">
-        <v>0.03801511362640127</v>
+        <v>-0.07464826527272228</v>
       </c>
       <c r="D71">
-        <v>-0.006789878808039466</v>
+        <v>-0.0235685384387111</v>
       </c>
       <c r="E71">
-        <v>-0.01972476925933638</v>
+        <v>0.02204405750089871</v>
       </c>
       <c r="F71">
-        <v>-0.01587887491772774</v>
+        <v>0.06487051792123588</v>
       </c>
       <c r="G71">
-        <v>0.006903294124263901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01796498713198615</v>
+      </c>
+      <c r="H71">
+        <v>-0.0476756197841791</v>
+      </c>
+      <c r="I71">
+        <v>-0.02760793861861092</v>
+      </c>
+      <c r="J71">
+        <v>-0.1196223323972078</v>
+      </c>
+      <c r="K71">
+        <v>0.04214293722147611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.009668169829151956</v>
+        <v>0.05399952187989847</v>
       </c>
       <c r="C72">
-        <v>-0.1528459434473657</v>
+        <v>0.1408345928448237</v>
       </c>
       <c r="D72">
-        <v>0.06986727439595038</v>
+        <v>0.05129573518012608</v>
       </c>
       <c r="E72">
-        <v>0.01356253027591958</v>
+        <v>-0.01961538528860916</v>
       </c>
       <c r="F72">
-        <v>-0.04154651174075086</v>
+        <v>-0.03110100085001123</v>
       </c>
       <c r="G72">
-        <v>-0.1348304221223263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.008658194728769131</v>
+      </c>
+      <c r="H72">
+        <v>-0.01295737687920567</v>
+      </c>
+      <c r="I72">
+        <v>-0.04823182955076206</v>
+      </c>
+      <c r="J72">
+        <v>0.09706992864473632</v>
+      </c>
+      <c r="K72">
+        <v>0.05375101490040517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.06541832056434221</v>
+        <v>0.1496304671123905</v>
       </c>
       <c r="C73">
-        <v>-0.104424100942672</v>
+        <v>0.1973516885673805</v>
       </c>
       <c r="D73">
-        <v>0.1190904210830221</v>
+        <v>0.08707778536866362</v>
       </c>
       <c r="E73">
-        <v>0.1517083033303996</v>
+        <v>-0.04333121599027068</v>
       </c>
       <c r="F73">
-        <v>0.2074356273734489</v>
+        <v>-0.2389994756016442</v>
       </c>
       <c r="G73">
-        <v>-0.3456554566693014</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3526710369554962</v>
+      </c>
+      <c r="H73">
+        <v>0.2902140269413531</v>
+      </c>
+      <c r="I73">
+        <v>0.1583448957696386</v>
+      </c>
+      <c r="J73">
+        <v>-0.1039924608017322</v>
+      </c>
+      <c r="K73">
+        <v>0.08934949530447334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.008760177985597545</v>
+        <v>0.03777616273668098</v>
       </c>
       <c r="C74">
-        <v>-0.08131843015357153</v>
+        <v>0.09941196995117077</v>
       </c>
       <c r="D74">
-        <v>0.07388542921425929</v>
+        <v>0.04868777053945455</v>
       </c>
       <c r="E74">
-        <v>0.07708196813564326</v>
+        <v>0.008075230574784192</v>
       </c>
       <c r="F74">
-        <v>0.04453301251795105</v>
+        <v>-0.03432837231056889</v>
       </c>
       <c r="G74">
-        <v>0.04158672471594805</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04570667548548574</v>
+      </c>
+      <c r="H74">
+        <v>0.01034763282863769</v>
+      </c>
+      <c r="I74">
+        <v>-0.0314117495471776</v>
+      </c>
+      <c r="J74">
+        <v>-0.001206508367421161</v>
+      </c>
+      <c r="K74">
+        <v>0.04335974059150442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.04254287230282151</v>
+        <v>0.06257382022072328</v>
       </c>
       <c r="C75">
-        <v>-0.1347525246934765</v>
+        <v>0.1630455566963444</v>
       </c>
       <c r="D75">
-        <v>0.09214240146961251</v>
+        <v>0.09014343920087807</v>
       </c>
       <c r="E75">
-        <v>0.1715326437039988</v>
+        <v>0.02908247284833096</v>
       </c>
       <c r="F75">
-        <v>0.03687990061083225</v>
+        <v>-0.1140747708170271</v>
       </c>
       <c r="G75">
-        <v>0.1814258289712855</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2272286237712727</v>
+      </c>
+      <c r="H75">
+        <v>0.008040662632952923</v>
+      </c>
+      <c r="I75">
+        <v>-0.02363628868557191</v>
+      </c>
+      <c r="J75">
+        <v>-0.119052102761613</v>
+      </c>
+      <c r="K75">
+        <v>-0.09170613797276629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01665111657782122</v>
+        <v>0.0419265613117204</v>
       </c>
       <c r="C76">
-        <v>-0.100366318882014</v>
+        <v>0.1223694510595274</v>
       </c>
       <c r="D76">
-        <v>0.06993135546750164</v>
+        <v>0.076056286660904</v>
       </c>
       <c r="E76">
-        <v>0.08705528755821208</v>
+        <v>-0.01882809850963653</v>
       </c>
       <c r="F76">
-        <v>0.06129197929168533</v>
+        <v>-0.08218634871699947</v>
       </c>
       <c r="G76">
-        <v>0.04642985448255214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.08257823448047157</v>
+      </c>
+      <c r="H76">
+        <v>0.02388587794732109</v>
+      </c>
+      <c r="I76">
+        <v>-0.03857457433425693</v>
+      </c>
+      <c r="J76">
+        <v>0.02532742525088056</v>
+      </c>
+      <c r="K76">
+        <v>-0.01600769562399215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.0909344943418792</v>
+        <v>0.0508151966352661</v>
       </c>
       <c r="C77">
-        <v>-0.3736974982505853</v>
+        <v>0.4081502490475443</v>
       </c>
       <c r="D77">
-        <v>-0.8301224967672486</v>
+        <v>-0.8957815397543399</v>
       </c>
       <c r="E77">
-        <v>0.2871474641381237</v>
+        <v>0.01776757269915875</v>
       </c>
       <c r="F77">
-        <v>0.1292785839132814</v>
+        <v>-0.08716545690025494</v>
       </c>
       <c r="G77">
-        <v>-0.03588875850145853</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03710782969660374</v>
+      </c>
+      <c r="H77">
+        <v>-0.02631549823008947</v>
+      </c>
+      <c r="I77">
+        <v>-0.06807991803098436</v>
+      </c>
+      <c r="J77">
+        <v>-0.01004034654115965</v>
+      </c>
+      <c r="K77">
+        <v>-0.003080364663523563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02392430977876674</v>
+        <v>0.03598370355407766</v>
       </c>
       <c r="C78">
-        <v>-0.1299218844062375</v>
+        <v>0.1143336622769319</v>
       </c>
       <c r="D78">
-        <v>0.1839162538446252</v>
+        <v>0.09482524400619623</v>
       </c>
       <c r="E78">
-        <v>-0.09993798089941082</v>
+        <v>-0.03824581257060976</v>
       </c>
       <c r="F78">
-        <v>0.1218154357481836</v>
+        <v>0.001958060465278868</v>
       </c>
       <c r="G78">
-        <v>0.1348816911003721</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1074715902589107</v>
+      </c>
+      <c r="H78">
+        <v>-0.09891467775135149</v>
+      </c>
+      <c r="I78">
+        <v>0.0340340696103438</v>
+      </c>
+      <c r="J78">
+        <v>0.0766310880668214</v>
+      </c>
+      <c r="K78">
+        <v>0.4052223850919265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02664552826052904</v>
+        <v>0.05698709493889528</v>
       </c>
       <c r="C79">
-        <v>-0.1636882369759941</v>
+        <v>0.1455015341310557</v>
       </c>
       <c r="D79">
-        <v>0.1201679161792948</v>
+        <v>0.0723628333142551</v>
       </c>
       <c r="E79">
-        <v>0.1209197005953908</v>
+        <v>-0.02282360930881128</v>
       </c>
       <c r="F79">
-        <v>0.08069170610319208</v>
+        <v>-0.06543462617229656</v>
       </c>
       <c r="G79">
-        <v>0.2346912907320534</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2333307794300806</v>
+      </c>
+      <c r="H79">
+        <v>-0.01689143930181347</v>
+      </c>
+      <c r="I79">
+        <v>-0.03465194800575176</v>
+      </c>
+      <c r="J79">
+        <v>-0.067388725110581</v>
+      </c>
+      <c r="K79">
+        <v>0.05157379992284856</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.008882195839639177</v>
+        <v>0.0196553136349221</v>
       </c>
       <c r="C80">
-        <v>-0.05305543546183691</v>
+        <v>0.04463573513854358</v>
       </c>
       <c r="D80">
-        <v>0.05542516291961116</v>
+        <v>0.03864624381105784</v>
       </c>
       <c r="E80">
-        <v>-0.03607203969312497</v>
+        <v>-0.04479863998928699</v>
       </c>
       <c r="F80">
-        <v>0.01475674086649108</v>
+        <v>0.0340285524906098</v>
       </c>
       <c r="G80">
-        <v>-0.003168706132642572</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.07264330392142543</v>
+      </c>
+      <c r="H80">
+        <v>0.0112372139514684</v>
+      </c>
+      <c r="I80">
+        <v>0.06424963719908683</v>
+      </c>
+      <c r="J80">
+        <v>-0.03003982511296397</v>
+      </c>
+      <c r="K80">
+        <v>-0.05901136838955382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.006181221182990918</v>
+        <v>0.01694464598849788</v>
       </c>
       <c r="C81">
-        <v>-0.06888905868144921</v>
+        <v>0.09670972127742168</v>
       </c>
       <c r="D81">
-        <v>0.07766490636070228</v>
+        <v>0.0594270259695748</v>
       </c>
       <c r="E81">
-        <v>0.08380106927927049</v>
+        <v>-0.01824960103749835</v>
       </c>
       <c r="F81">
-        <v>0.05624888445492888</v>
+        <v>-0.0400232813649808</v>
       </c>
       <c r="G81">
-        <v>0.07418284254964252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1020924522928807</v>
+      </c>
+      <c r="H81">
+        <v>-0.04611672382844427</v>
+      </c>
+      <c r="I81">
+        <v>-0.03596764425123111</v>
+      </c>
+      <c r="J81">
+        <v>-0.05366216510061095</v>
+      </c>
+      <c r="K81">
+        <v>-0.01264459104203099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01747850960142246</v>
+        <v>0.04380873831650713</v>
       </c>
       <c r="C82">
-        <v>-0.07275652126333487</v>
+        <v>0.102574767600254</v>
       </c>
       <c r="D82">
-        <v>0.07608606912682868</v>
+        <v>0.06698356144685837</v>
       </c>
       <c r="E82">
-        <v>0.1015848266996622</v>
+        <v>-0.02509395579366134</v>
       </c>
       <c r="F82">
-        <v>0.05370348378569217</v>
+        <v>-0.07227722112729273</v>
       </c>
       <c r="G82">
-        <v>0.03660997867605258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.08333501608744788</v>
+      </c>
+      <c r="H82">
+        <v>-0.0136288236249097</v>
+      </c>
+      <c r="I82">
+        <v>-0.01054895133074162</v>
+      </c>
+      <c r="J82">
+        <v>0.0007623716875144966</v>
+      </c>
+      <c r="K82">
+        <v>0.01011674492826783</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.005603574826949781</v>
+        <v>-0.00102271923093003</v>
       </c>
       <c r="C83">
-        <v>-0.03248008631707163</v>
+        <v>-0.02172702326652128</v>
       </c>
       <c r="D83">
-        <v>-0.1326340677574772</v>
+        <v>-0.05814573006041765</v>
       </c>
       <c r="E83">
-        <v>-0.5919207946731233</v>
+        <v>-0.9375607086366575</v>
       </c>
       <c r="F83">
-        <v>0.6768166738078787</v>
+        <v>0.216905358205157</v>
       </c>
       <c r="G83">
-        <v>0.1855612231613814</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04948038556995193</v>
+      </c>
+      <c r="H83">
+        <v>0.05864013524695395</v>
+      </c>
+      <c r="I83">
+        <v>0.04948345711294615</v>
+      </c>
+      <c r="J83">
+        <v>0.07860206144754148</v>
+      </c>
+      <c r="K83">
+        <v>0.03246923784879802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.00559665235992675</v>
+        <v>-0.0006838567408565017</v>
       </c>
       <c r="C84">
-        <v>-0.07748690943276616</v>
+        <v>0.05036725235676937</v>
       </c>
       <c r="D84">
-        <v>0.03817142857452877</v>
+        <v>0.06281797191247959</v>
       </c>
       <c r="E84">
-        <v>-0.06241181265700504</v>
+        <v>0.03299721428764758</v>
       </c>
       <c r="F84">
-        <v>-0.1572719714164875</v>
+        <v>0.08065667333628618</v>
       </c>
       <c r="G84">
-        <v>0.01827243476538069</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.02312729583746788</v>
+      </c>
+      <c r="H84">
+        <v>-0.07636656367337348</v>
+      </c>
+      <c r="I84">
+        <v>-0.0415236342219994</v>
+      </c>
+      <c r="J84">
+        <v>0.170394827238797</v>
+      </c>
+      <c r="K84">
+        <v>-0.02708234740337457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.0001256150876311578</v>
+        <v>0.02825070307274964</v>
       </c>
       <c r="C85">
-        <v>-0.1127997336026101</v>
+        <v>0.1157680662950265</v>
       </c>
       <c r="D85">
-        <v>0.0823956600383505</v>
+        <v>0.08522868473808286</v>
       </c>
       <c r="E85">
-        <v>0.1234527386244919</v>
+        <v>-0.03060648512653915</v>
       </c>
       <c r="F85">
-        <v>0.08098511261261598</v>
+        <v>-0.1238114840677773</v>
       </c>
       <c r="G85">
-        <v>0.1836095563836392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2233767553640372</v>
+      </c>
+      <c r="H85">
+        <v>0.03032098644891986</v>
+      </c>
+      <c r="I85">
+        <v>-0.05222252928671239</v>
+      </c>
+      <c r="J85">
+        <v>-0.06962835132202978</v>
+      </c>
+      <c r="K85">
+        <v>-0.0217617047733187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02138574886773728</v>
+        <v>0.0159479876016408</v>
       </c>
       <c r="C86">
-        <v>-0.07608351295149438</v>
+        <v>0.08171772471958677</v>
       </c>
       <c r="D86">
-        <v>-0.00702776559578585</v>
+        <v>0.03151788694239148</v>
       </c>
       <c r="E86">
-        <v>-0.01431711747795773</v>
+        <v>0.01079464903117466</v>
       </c>
       <c r="F86">
-        <v>-0.02571679767517256</v>
+        <v>0.07517491748570555</v>
       </c>
       <c r="G86">
-        <v>-0.07126078936217797</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04351601143651077</v>
+      </c>
+      <c r="H86">
+        <v>-0.06840030329362891</v>
+      </c>
+      <c r="I86">
+        <v>0.1469681373275439</v>
+      </c>
+      <c r="J86">
+        <v>-0.1253544269353462</v>
+      </c>
+      <c r="K86">
+        <v>0.1635825476999415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02370962519700668</v>
+        <v>0.02622448101101985</v>
       </c>
       <c r="C87">
-        <v>-0.148623204346419</v>
+        <v>0.1206120156271061</v>
       </c>
       <c r="D87">
-        <v>0.04107846866535818</v>
+        <v>0.02360558704086074</v>
       </c>
       <c r="E87">
-        <v>-0.09099321557635663</v>
+        <v>0.005067876106576334</v>
       </c>
       <c r="F87">
-        <v>-0.05690710604803137</v>
+        <v>0.0556227577224361</v>
       </c>
       <c r="G87">
-        <v>0.01288294968248456</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.005918581965561742</v>
+      </c>
+      <c r="H87">
+        <v>-0.01914431704700828</v>
+      </c>
+      <c r="I87">
+        <v>-0.04540996728062249</v>
+      </c>
+      <c r="J87">
+        <v>0.09071715233962516</v>
+      </c>
+      <c r="K87">
+        <v>0.05737029639930467</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.007887424970922619</v>
+        <v>0.04051399647072971</v>
       </c>
       <c r="C88">
-        <v>-0.0352039372949716</v>
+        <v>0.06032934307148387</v>
       </c>
       <c r="D88">
-        <v>0.04058676824519308</v>
+        <v>0.04281323667323821</v>
       </c>
       <c r="E88">
-        <v>0.05405705829530905</v>
+        <v>0.004468916897114623</v>
       </c>
       <c r="F88">
-        <v>0.007823211368273547</v>
+        <v>-0.02092172910990307</v>
       </c>
       <c r="G88">
-        <v>-0.01439607531365702</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01938307217729401</v>
+      </c>
+      <c r="H88">
+        <v>0.02044004951086898</v>
+      </c>
+      <c r="I88">
+        <v>-0.01314819102032217</v>
+      </c>
+      <c r="J88">
+        <v>-0.004427182106840502</v>
+      </c>
+      <c r="K88">
+        <v>-0.07161457940425651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4015628522284163</v>
+        <v>0.3935666792660858</v>
       </c>
       <c r="C89">
-        <v>0.06694097154280386</v>
+        <v>-0.1136009381004919</v>
       </c>
       <c r="D89">
-        <v>0.07116837631068425</v>
+        <v>-0.03701476771895731</v>
       </c>
       <c r="E89">
-        <v>-0.05998247972353504</v>
+        <v>0.04376100541731067</v>
       </c>
       <c r="F89">
-        <v>-0.1007540811370534</v>
+        <v>0.03956875059397062</v>
       </c>
       <c r="G89">
-        <v>0.03204564796362234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03417905517995418</v>
+      </c>
+      <c r="H89">
+        <v>-0.002944822283026997</v>
+      </c>
+      <c r="I89">
+        <v>-0.02047876477257516</v>
+      </c>
+      <c r="J89">
+        <v>0.7274588266723159</v>
+      </c>
+      <c r="K89">
+        <v>-0.05627151525768329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.307090851352403</v>
+        <v>0.3163226147167388</v>
       </c>
       <c r="C90">
-        <v>0.01868084003361933</v>
+        <v>-0.07415760729110978</v>
       </c>
       <c r="D90">
-        <v>0.0007204634673812009</v>
+        <v>-0.01956906620346262</v>
       </c>
       <c r="E90">
-        <v>-0.08257168521133824</v>
+        <v>-0.00321680143907516</v>
       </c>
       <c r="F90">
-        <v>0.04093797814657048</v>
+        <v>0.04108803789761943</v>
       </c>
       <c r="G90">
-        <v>-0.0268085392726926</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.002237070512765766</v>
+      </c>
+      <c r="H90">
+        <v>-0.01974477387162849</v>
+      </c>
+      <c r="I90">
+        <v>-0.002658344788209834</v>
+      </c>
+      <c r="J90">
+        <v>-0.08008898282646652</v>
+      </c>
+      <c r="K90">
+        <v>0.01507238574003007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02484175576704254</v>
+        <v>0.05413076762467014</v>
       </c>
       <c r="C91">
-        <v>-0.07663835995671836</v>
+        <v>0.07788173477912082</v>
       </c>
       <c r="D91">
-        <v>0.06829632284969445</v>
+        <v>0.05522825271675661</v>
       </c>
       <c r="E91">
-        <v>0.06401207734030026</v>
+        <v>-0.04506704904109281</v>
       </c>
       <c r="F91">
-        <v>0.05508493740126933</v>
+        <v>-0.04286234474248336</v>
       </c>
       <c r="G91">
-        <v>0.07538292742815574</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.09269202939146759</v>
+      </c>
+      <c r="H91">
+        <v>0.03988441135230304</v>
+      </c>
+      <c r="I91">
+        <v>-0.02493849508472834</v>
+      </c>
+      <c r="J91">
+        <v>-0.01447482647566172</v>
+      </c>
+      <c r="K91">
+        <v>-0.07133196660377829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3825809898770387</v>
+        <v>0.3521173470086649</v>
       </c>
       <c r="C92">
-        <v>0.05517983499325846</v>
+        <v>-0.1197322149972812</v>
       </c>
       <c r="D92">
-        <v>-0.02005407783676016</v>
+        <v>-0.05389653959274865</v>
       </c>
       <c r="E92">
-        <v>0.02947024936256141</v>
+        <v>0.04947732359073646</v>
       </c>
       <c r="F92">
-        <v>-0.1106228600253601</v>
+        <v>0.04780991602634833</v>
       </c>
       <c r="G92">
-        <v>0.001056737798165406</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01302449948250156</v>
+      </c>
+      <c r="H92">
+        <v>-0.05273258538598344</v>
+      </c>
+      <c r="I92">
+        <v>-0.03665670514377783</v>
+      </c>
+      <c r="J92">
+        <v>-0.1472734915291873</v>
+      </c>
+      <c r="K92">
+        <v>-0.00464493597700271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3070732723290888</v>
+        <v>0.309582378312651</v>
       </c>
       <c r="C93">
-        <v>0.07105694265423494</v>
+        <v>-0.1147755414952163</v>
       </c>
       <c r="D93">
-        <v>0.01123620509233536</v>
+        <v>-0.01058487739254632</v>
       </c>
       <c r="E93">
-        <v>-0.06782489919522398</v>
+        <v>0.01146145647126527</v>
       </c>
       <c r="F93">
-        <v>-0.0435647851138364</v>
+        <v>0.04420050416626724</v>
       </c>
       <c r="G93">
-        <v>0.01761671757680837</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03415494246083185</v>
+      </c>
+      <c r="H93">
+        <v>-0.04225874830537162</v>
+      </c>
+      <c r="I93">
+        <v>0.01357991333255549</v>
+      </c>
+      <c r="J93">
+        <v>-0.1069427407410454</v>
+      </c>
+      <c r="K93">
+        <v>0.02332965886181076</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03544800290149469</v>
+        <v>0.07853457951630782</v>
       </c>
       <c r="C94">
-        <v>-0.1911720634433439</v>
+        <v>0.1613469910819162</v>
       </c>
       <c r="D94">
-        <v>0.1459369098336946</v>
+        <v>0.1155293768581894</v>
       </c>
       <c r="E94">
-        <v>0.2114970014760337</v>
+        <v>-0.04135234515096829</v>
       </c>
       <c r="F94">
-        <v>0.04820246922658232</v>
+        <v>-0.143062104025755</v>
       </c>
       <c r="G94">
-        <v>0.5811145509249452</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5632661478804543</v>
+      </c>
+      <c r="H94">
+        <v>0.1492337985112134</v>
+      </c>
+      <c r="I94">
+        <v>0.06749277657952144</v>
+      </c>
+      <c r="J94">
+        <v>0.04819806373627564</v>
+      </c>
+      <c r="K94">
+        <v>-0.2855292833163754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02374973075514174</v>
+        <v>0.03921572422106005</v>
       </c>
       <c r="C95">
-        <v>-0.09596226834547764</v>
+        <v>0.1267425387368308</v>
       </c>
       <c r="D95">
-        <v>0.04892146801261426</v>
+        <v>0.06507697842363661</v>
       </c>
       <c r="E95">
-        <v>0.02953290644576026</v>
+        <v>0.0129957036834932</v>
       </c>
       <c r="F95">
-        <v>0.08645118158802451</v>
+        <v>-0.0738672537174138</v>
       </c>
       <c r="G95">
-        <v>-0.06205252653388885</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04281535273847846</v>
+      </c>
+      <c r="H95">
+        <v>-0.03800852093226988</v>
+      </c>
+      <c r="I95">
+        <v>-0.09229525014727102</v>
+      </c>
+      <c r="J95">
+        <v>0.1611430471595027</v>
+      </c>
+      <c r="K95">
+        <v>-0.2460172912900142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-9.067116844412325e-05</v>
+        <v>0.01560503533680609</v>
       </c>
       <c r="C97">
-        <v>0.0009318668832057185</v>
+        <v>0.015767151608404</v>
       </c>
       <c r="D97">
-        <v>0.0003799352892274336</v>
+        <v>-0.006899881072739214</v>
       </c>
       <c r="E97">
-        <v>0.003443140127587729</v>
+        <v>0.02703581677395232</v>
       </c>
       <c r="F97">
-        <v>-0.0030363198637685</v>
+        <v>-0.007957064669814847</v>
       </c>
       <c r="G97">
-        <v>-0.001810170829608168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02656585118049115</v>
+      </c>
+      <c r="H97">
+        <v>-0.0878523021253078</v>
+      </c>
+      <c r="I97">
+        <v>0.1131397175082576</v>
+      </c>
+      <c r="J97">
+        <v>0.01999896762936319</v>
+      </c>
+      <c r="K97">
+        <v>-0.05141822883069704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.07631966259188096</v>
+        <v>0.1339230428600034</v>
       </c>
       <c r="C98">
-        <v>-0.1391716887947565</v>
+        <v>0.1626845019448787</v>
       </c>
       <c r="D98">
-        <v>0.1384740557359322</v>
+        <v>0.09367486005971812</v>
       </c>
       <c r="E98">
-        <v>0.0923973457311541</v>
+        <v>-0.063904624538532</v>
       </c>
       <c r="F98">
-        <v>0.1492087717897413</v>
+        <v>-0.2270570926087852</v>
       </c>
       <c r="G98">
-        <v>-0.2110455254232163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2746228850657371</v>
+      </c>
+      <c r="H98">
+        <v>0.3284748803743948</v>
+      </c>
+      <c r="I98">
+        <v>0.1572629448658804</v>
+      </c>
+      <c r="J98">
+        <v>-0.1073776046497219</v>
+      </c>
+      <c r="K98">
+        <v>0.05377860200259398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02061230596583404</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.05111604413667038</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01804060054233364</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.005856061484596347</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.1241017095516676</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.0172412479355637</v>
+      </c>
+      <c r="H99">
+        <v>-0.4553710399445591</v>
+      </c>
+      <c r="I99">
+        <v>0.8208887884189252</v>
+      </c>
+      <c r="J99">
+        <v>0.07250520466637353</v>
+      </c>
+      <c r="K99">
+        <v>-0.08298163299170117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.007447782759959239</v>
+        <v>0.01545430457748433</v>
       </c>
       <c r="C101">
-        <v>-0.07673244812793117</v>
+        <v>0.08199740954623902</v>
       </c>
       <c r="D101">
-        <v>0.04722909704218491</v>
+        <v>0.05016982838740138</v>
       </c>
       <c r="E101">
-        <v>-0.02159443284011197</v>
+        <v>-0.04622132895323881</v>
       </c>
       <c r="F101">
-        <v>0.02861681145871938</v>
+        <v>0.0160032523547355</v>
       </c>
       <c r="G101">
-        <v>-0.1158676266939418</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1506940929467322</v>
+      </c>
+      <c r="H101">
+        <v>-0.2341960718368339</v>
+      </c>
+      <c r="I101">
+        <v>-0.141092578135304</v>
+      </c>
+      <c r="J101">
+        <v>-0.01200548120632742</v>
+      </c>
+      <c r="K101">
+        <v>-0.1912879984062926</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004031786036364895</v>
+        <v>0.001958655919545447</v>
       </c>
       <c r="C102">
-        <v>-0.01834076767029709</v>
+        <v>0.007312786708768926</v>
       </c>
       <c r="D102">
-        <v>0.001984944550921364</v>
+        <v>-0.001283985167706606</v>
       </c>
       <c r="E102">
-        <v>0.0244749142366644</v>
+        <v>-0.002807190584859146</v>
       </c>
       <c r="F102">
-        <v>0.02254441182005987</v>
+        <v>-0.00706929148452872</v>
       </c>
       <c r="G102">
-        <v>0.006028408374658572</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.003748324873260616</v>
+      </c>
+      <c r="H102">
+        <v>-0.001051262427394671</v>
+      </c>
+      <c r="I102">
+        <v>-0.004334282607984116</v>
+      </c>
+      <c r="J102">
+        <v>0.01068226464745283</v>
+      </c>
+      <c r="K102">
+        <v>0.001478828710262855</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
